--- a/downloaded_files/EECS304_Lecture-35309.xlsx
+++ b/downloaded_files/EECS304_Lecture-35309.xlsx
@@ -969,7 +969,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4326937847</x:v>
+        <x:v>45927.4536977662</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1925,7 +1925,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.424537037</x:v>
+        <x:v>45927.4185873843</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>

--- a/downloaded_files/EECS304_Lecture-35309.xlsx
+++ b/downloaded_files/EECS304_Lecture-35309.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -295,15 +295,6 @@
   </x:si>
   <x:si>
     <x:t>Mostafa Yasser Mohammed Mohammed Amin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220147</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مهند محمد فتحى محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohaned Mohammed fathy</x:t>
   </x:si>
   <x:si>
     <x:t>1230272</x:t>
@@ -482,7 +473,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E39" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -782,7 +773,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T39"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1829,7 +1820,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4218207523</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1861,7 +1852,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45909.4341060185</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1893,7 +1884,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45909.4341060185</x:v>
+        <x:v>45927.4185873843</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1925,7 +1916,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45927.4185873843</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1957,7 +1948,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1989,7 +1980,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45913.0197531597</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2021,7 +2012,7 @@
         <x:v>113</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45913.0197531597</x:v>
+        <x:v>45907.4252783218</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2038,38 +2029,6 @@
       <x:c r="R38" s="2" t="s"/>
       <x:c r="S38" s="2" t="s"/>
       <x:c r="T38" s="2" t="s"/>
-    </x:row>
-    <x:row r="39" spans="1:20">
-      <x:c r="A39" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B39" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="C39" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="D39" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="E39" s="3">
-        <x:v>45907.4252783218</x:v>
-      </x:c>
-      <x:c r="F39" s="2" t="s"/>
-      <x:c r="G39" s="2" t="s"/>
-      <x:c r="H39" s="2" t="s"/>
-      <x:c r="I39" s="2" t="s"/>
-      <x:c r="J39" s="2" t="s"/>
-      <x:c r="K39" s="2" t="s"/>
-      <x:c r="L39" s="2" t="s"/>
-      <x:c r="M39" s="2" t="s"/>
-      <x:c r="N39" s="2" t="s"/>
-      <x:c r="O39" s="2" t="s"/>
-      <x:c r="P39" s="2" t="s"/>
-      <x:c r="Q39" s="2" t="s"/>
-      <x:c r="R39" s="2" t="s"/>
-      <x:c r="S39" s="2" t="s"/>
-      <x:c r="T39" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35309.xlsx
+++ b/downloaded_files/EECS304_Lecture-35309.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -121,15 +121,6 @@
   </x:si>
   <x:si>
     <x:t>Dani Fadi Farouk Saad Beshay</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230194</x:t>
-  </x:si>
-  <x:si>
-    <x:t>سلمى طارق عوض مرعى</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Salma Tarek Awad Ali Marei</x:t>
   </x:si>
   <x:si>
     <x:t>1210243</x:t>
@@ -473,7 +464,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -773,7 +764,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1184,7 +1175,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45913.041650081</x:v>
+        <x:v>45906.6646827199</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1216,7 +1207,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.6646827199</x:v>
+        <x:v>45907.4311765394</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1248,7 +1239,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.4311765394</x:v>
+        <x:v>45909.7515678241</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1280,7 +1271,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.7515678241</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1308,11 +1299,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45907.6681149653</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1335,14 +1324,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45907.6681149653</x:v>
+        <x:v>45907.4441248843</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1374,7 +1365,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4441248843</x:v>
+        <x:v>45907.4449827546</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1406,7 +1397,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4449827546</x:v>
+        <x:v>45907.4531964468</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1438,7 +1429,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4531964468</x:v>
+        <x:v>45906.6657920949</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1466,11 +1457,9 @@
       <x:c r="C21" s="2" t="s">
         <x:v>62</x:v>
       </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
+      <x:c r="D21" s="2" t="s"/>
       <x:c r="E21" s="3">
-        <x:v>45906.6657920949</x:v>
+        <x:v>45907.7045680903</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1493,14 +1482,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="s">
         <x:v>64</x:v>
       </x:c>
-      <x:c r="C22" s="2" t="s">
+      <x:c r="D22" s="2" t="s">
         <x:v>65</x:v>
       </x:c>
-      <x:c r="D22" s="2" t="s"/>
       <x:c r="E22" s="3">
-        <x:v>45907.7045680903</x:v>
+        <x:v>45906.6798916319</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1532,7 +1523,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.6798916319</x:v>
+        <x:v>45907.4543715625</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1564,7 +1555,7 @@
         <x:v>71</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.4543715625</x:v>
+        <x:v>45913.0244904745</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1596,7 +1587,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45913.0244904745</x:v>
+        <x:v>45907.5744230324</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1628,7 +1619,7 @@
         <x:v>77</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.5744230324</x:v>
+        <x:v>45907.4247800116</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1660,7 +1651,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.4247800116</x:v>
+        <x:v>45907.4620550116</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1692,7 +1683,7 @@
         <x:v>83</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.4620550116</x:v>
+        <x:v>45912.9617385069</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1724,7 +1715,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.9617385069</x:v>
+        <x:v>45907.4887697917</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1756,7 +1747,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.4887697917</x:v>
+        <x:v>45913.0324341088</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1788,7 +1779,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45913.0324341088</x:v>
+        <x:v>45907.4192483449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1820,7 +1811,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.4192483449</x:v>
+        <x:v>45928.3998574074</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1852,7 +1843,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45909.4341060185</x:v>
+        <x:v>45927.4185873843</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1884,7 +1875,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45927.4185873843</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1916,7 +1907,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1948,7 +1939,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45913.0197531597</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1980,7 +1971,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45913.0197531597</x:v>
+        <x:v>45907.4252783218</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1997,38 +1988,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45907.4252783218</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35309.xlsx
+++ b/downloaded_files/EECS304_Lecture-35309.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -295,15 +295,6 @@
   </x:si>
   <x:si>
     <x:t>Nour Islam Mahmoud Elsayed Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4220145</x:t>
-  </x:si>
-  <x:si>
-    <x:t>نور الدين حسن حامد محمد خلف</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nour Eldin Hassan Hamed Khalaf</x:t>
   </x:si>
   <x:si>
     <x:t>1230273</x:t>
@@ -464,7 +455,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -764,7 +755,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1811,7 +1802,7 @@
         <x:v>95</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45928.3998574074</x:v>
+        <x:v>45927.4185873843</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1843,7 +1834,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45927.4185873843</x:v>
+        <x:v>45907.4520207523</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1875,7 +1866,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.4520207523</x:v>
+        <x:v>45906.6641302431</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1907,7 +1898,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.6641302431</x:v>
+        <x:v>45913.0197531597</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1939,7 +1930,7 @@
         <x:v>107</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45913.0197531597</x:v>
+        <x:v>45907.4252783218</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1956,38 +1947,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45907.4252783218</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS304_Lecture-35309.xlsx
+++ b/downloaded_files/EECS304_Lecture-35309.xlsx
@@ -231,7 +231,7 @@
     <x:t>محمد أحمد عبد العظيم عبد الله</x:t>
   </x:si>
   <x:si>
-    <x:t>Mohammed Ahmed abdel aziem abdullah</x:t>
+    <x:t>Mohammed Ahmed Abdel Aziem Abdullah</x:t>
   </x:si>
   <x:si>
     <x:t>1230302</x:t>
